--- a/fr/schedule/schedule.xlsx
+++ b/fr/schedule/schedule.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\goat-2015\fr\schedule\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="17544" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,7 @@
   <webPublishing allowPng="1" targetScreenSize="1024x768" dpi="72" codePage="65001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:AutoWeb TWS="0" Flags="0" Path="Macintosh HD:Users:Glenn:Development:websites:goat-2015:en:schedule-beta:schedule.htm"/>
+      <mx:AutoWeb TWS="0" Flags="0" Path="Macintosh HD:Users:Glenn:Development:websites:goat-2015:fr:schedule:schedule.htm"/>
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -702,7 +697,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1172,22 +1167,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="2"/>
+    <col min="1" max="1" width="11.1640625" style="2"/>
     <col min="2" max="5" width="25.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="42" customHeight="1" thickBot="1">
       <c r="A1" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -1198,7 +1193,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="18.5" thickBot="1">
       <c r="A2" s="3">
         <v>0.375</v>
       </c>
@@ -1209,7 +1204,7 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="25" customHeight="1" thickBot="1">
       <c r="A3" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -1220,7 +1215,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="117" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="117" thickBot="1">
       <c r="A4" s="3">
         <v>0.42708333333333331</v>
       </c>
@@ -1237,7 +1232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="25" customHeight="1" thickBot="1">
       <c r="A5" s="3">
         <v>0.46875</v>
       </c>
@@ -1248,7 +1243,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="148.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="148.25" thickBot="1">
       <c r="A6" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -1265,7 +1260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="25" customHeight="1" thickBot="1">
       <c r="A7" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -1276,7 +1271,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="18.5" thickBot="1">
       <c r="A8" s="3">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -1287,7 +1282,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="25" customHeight="1" thickBot="1">
       <c r="A9" s="3">
         <v>9.375E-2</v>
       </c>
@@ -1298,7 +1293,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="171" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="171" thickBot="1">
       <c r="A10" s="3">
         <v>0.10416666666666667</v>
       </c>
@@ -1315,7 +1310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="25" customHeight="1" thickBot="1">
       <c r="A11" s="3">
         <v>0.16666666666666666</v>
       </c>
@@ -1326,7 +1321,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="117" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="117" thickBot="1">
       <c r="A12" s="3">
         <v>0.17708333333333334</v>
       </c>
@@ -1343,7 +1338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="36" customHeight="1" thickBot="1">
       <c r="A13" s="3">
         <v>0.21875</v>
       </c>
@@ -1354,7 +1349,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="25" customHeight="1" thickBot="1">
       <c r="A14" s="3">
         <v>0.23958333333333334</v>
       </c>
